--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H2">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I2">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J2">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N2">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q2">
-        <v>105.9658829936958</v>
+        <v>40.95384836987501</v>
       </c>
       <c r="R2">
-        <v>953.692946943262</v>
+        <v>368.584635328875</v>
       </c>
       <c r="S2">
-        <v>0.009726376203357192</v>
+        <v>0.004278772492572035</v>
       </c>
       <c r="T2">
-        <v>0.009726376203357191</v>
+        <v>0.004278772492572035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H3">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I3">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J3">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q3">
-        <v>517.3036410995971</v>
+        <v>442.123025971375</v>
       </c>
       <c r="R3">
-        <v>4655.732769896374</v>
+        <v>3979.107233742375</v>
       </c>
       <c r="S3">
-        <v>0.04748216768033244</v>
+        <v>0.04619208980737857</v>
       </c>
       <c r="T3">
-        <v>0.04748216768033243</v>
+        <v>0.04619208980737857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H4">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I4">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J4">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N4">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O4">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P4">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q4">
-        <v>93.7021106886191</v>
+        <v>81.93035372724999</v>
       </c>
       <c r="R4">
-        <v>843.3189961975719</v>
+        <v>737.37318354525</v>
       </c>
       <c r="S4">
-        <v>0.008600711416337153</v>
+        <v>0.008559912139849628</v>
       </c>
       <c r="T4">
-        <v>0.008600711416337153</v>
+        <v>0.008559912139849628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.20127533333333</v>
+        <v>9.573375</v>
       </c>
       <c r="H5">
-        <v>33.603826</v>
+        <v>28.720125</v>
       </c>
       <c r="I5">
-        <v>0.1186573945858707</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="J5">
-        <v>0.1186573945858706</v>
+        <v>0.1037691388643484</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N5">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O5">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P5">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q5">
-        <v>575.7642545293816</v>
+        <v>428.20883702975</v>
       </c>
       <c r="R5">
-        <v>5181.878290764434</v>
+        <v>3853.87953326775</v>
       </c>
       <c r="S5">
-        <v>0.05284813928584387</v>
+        <v>0.04473836442454816</v>
       </c>
       <c r="T5">
-        <v>0.05284813928584387</v>
+        <v>0.04473836442454816</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
         <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J6">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N6">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q6">
-        <v>453.5642067021119</v>
+        <v>205.101970455648</v>
       </c>
       <c r="R6">
-        <v>4082.077860319007</v>
+        <v>1845.917734100831</v>
       </c>
       <c r="S6">
-        <v>0.04163166466535704</v>
+        <v>0.02142862525230928</v>
       </c>
       <c r="T6">
-        <v>0.04163166466535705</v>
+        <v>0.02142862525230928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
         <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J7">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q7">
-        <v>2214.207148289526</v>
+        <v>2214.207148289527</v>
       </c>
       <c r="R7">
         <v>19927.86433460574</v>
       </c>
       <c r="S7">
-        <v>0.2032372222832125</v>
+        <v>0.2313357356161573</v>
       </c>
       <c r="T7">
-        <v>0.2032372222832125</v>
+        <v>0.2313357356161572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
         <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J8">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N8">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O8">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P8">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q8">
-        <v>401.0717629118934</v>
+        <v>410.3174099249736</v>
       </c>
       <c r="R8">
-        <v>3609.645866207041</v>
+        <v>3692.856689324762</v>
       </c>
       <c r="S8">
-        <v>0.03681349827337198</v>
+        <v>0.04286910551004072</v>
       </c>
       <c r="T8">
-        <v>0.036813498273372</v>
+        <v>0.04286910551004072</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.94465366666666</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
         <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5078874966566523</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="J9">
-        <v>0.5078874966566524</v>
+        <v>0.5196887643218222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N9">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O9">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P9">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q9">
-        <v>2464.435250056738</v>
+        <v>2144.52315807095</v>
       </c>
       <c r="R9">
-        <v>22179.91725051065</v>
+        <v>19300.70842263855</v>
       </c>
       <c r="S9">
-        <v>0.2262051114347108</v>
+        <v>0.224055297943315</v>
       </c>
       <c r="T9">
-        <v>0.2262051114347109</v>
+        <v>0.2240552979433149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H10">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J10">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N10">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q10">
-        <v>91.33189796590102</v>
+        <v>48.42600234005879</v>
       </c>
       <c r="R10">
-        <v>821.9870816931091</v>
+        <v>435.8340210605291</v>
       </c>
       <c r="S10">
-        <v>0.008383154784222729</v>
+        <v>0.005059447524113226</v>
       </c>
       <c r="T10">
-        <v>0.008383154784222729</v>
+        <v>0.005059447524113225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H11">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J11">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q11">
-        <v>445.863536748977</v>
+        <v>522.7897143369001</v>
       </c>
       <c r="R11">
-        <v>4012.771830740793</v>
+        <v>4705.107429032101</v>
       </c>
       <c r="S11">
-        <v>0.04092483704437139</v>
+        <v>0.05461997683103566</v>
       </c>
       <c r="T11">
-        <v>0.04092483704437139</v>
+        <v>0.05461997683103566</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H12">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J12">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N12">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O12">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P12">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q12">
-        <v>80.76176379440599</v>
+        <v>96.87879550377312</v>
       </c>
       <c r="R12">
-        <v>726.8558741496539</v>
+        <v>871.909159533958</v>
       </c>
       <c r="S12">
-        <v>0.007412945330317284</v>
+        <v>0.01012169409749467</v>
       </c>
       <c r="T12">
-        <v>0.007412945330317285</v>
+        <v>0.01012169409749467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.654369000000001</v>
+        <v>11.32006633333333</v>
       </c>
       <c r="H13">
-        <v>28.963107</v>
+        <v>33.960199</v>
       </c>
       <c r="I13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="J13">
-        <v>0.1022707002390678</v>
+        <v>0.122702133291269</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N13">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O13">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P13">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q13">
-        <v>496.250686178107</v>
+        <v>506.3368393796643</v>
       </c>
       <c r="R13">
-        <v>4466.256175602963</v>
+        <v>4557.031554416978</v>
       </c>
       <c r="S13">
-        <v>0.0455497630801564</v>
+        <v>0.05290101483862539</v>
       </c>
       <c r="T13">
-        <v>0.04554976308015641</v>
+        <v>0.05290101483862539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H14">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J14">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N14">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q14">
-        <v>242.1787146352712</v>
+        <v>100.1812628502901</v>
       </c>
       <c r="R14">
-        <v>2179.608431717441</v>
+        <v>901.6313656526111</v>
       </c>
       <c r="S14">
-        <v>0.02222905354479301</v>
+        <v>0.01046672898438185</v>
       </c>
       <c r="T14">
-        <v>0.02222905354479301</v>
+        <v>0.01046672898438185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H15">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J15">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.547699</v>
       </c>
       <c r="O15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q15">
-        <v>1182.266662989062</v>
+        <v>1081.520903163395</v>
       </c>
       <c r="R15">
-        <v>10640.39996690156</v>
+        <v>9733.688128470558</v>
       </c>
       <c r="S15">
-        <v>0.1085176663662912</v>
+        <v>0.1129950438064613</v>
       </c>
       <c r="T15">
-        <v>0.1085176663662912</v>
+        <v>0.1129950438064613</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H16">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J16">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N16">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O16">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P16">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q16">
-        <v>214.1505934181828</v>
+        <v>200.4179492007024</v>
       </c>
       <c r="R16">
-        <v>1927.355340763646</v>
+        <v>1803.761542806322</v>
       </c>
       <c r="S16">
-        <v>0.01965641371460428</v>
+        <v>0.02093924850023276</v>
       </c>
       <c r="T16">
-        <v>0.01965641371460429</v>
+        <v>0.02093924850023276</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.59984766666667</v>
+        <v>23.41838033333333</v>
       </c>
       <c r="H17">
-        <v>76.799543</v>
+        <v>70.25514099999999</v>
       </c>
       <c r="I17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="J17">
-        <v>0.2711844085184092</v>
+        <v>0.2538399635225604</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N17">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O17">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P17">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q17">
-        <v>1315.874913278987</v>
+        <v>1047.484028115167</v>
       </c>
       <c r="R17">
-        <v>11842.87421951089</v>
+        <v>9427.356253036502</v>
       </c>
       <c r="S17">
-        <v>0.1207812748927207</v>
+        <v>0.1094389422314845</v>
       </c>
       <c r="T17">
-        <v>0.1207812748927207</v>
+        <v>0.1094389422314845</v>
       </c>
     </row>
   </sheetData>
